--- a/scripts/barcodes_KGoriginal_file.xlsx
+++ b/scripts/barcodes_KGoriginal_file.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pacific cod\DataAnalysis\PCod-US-repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pacific cod\DataAnalysis\PCod-US-repo\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" tabRatio="795" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" tabRatio="795" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="PWS12_test" sheetId="6" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="PI04" sheetId="8" r:id="rId7"/>
     <sheet name="PWS12_GS13" sheetId="9" r:id="rId8"/>
     <sheet name="UP03" sheetId="10" r:id="rId9"/>
+    <sheet name="SampleList_MF" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="879">
   <si>
     <t>sample_AAACGG.fq</t>
   </si>
@@ -4240,6 +4241,1269 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="B1:P48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="N1" t="s">
+        <v>697</v>
+      </c>
+      <c r="P1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="N2" t="s">
+        <v>703</v>
+      </c>
+      <c r="P2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="N3" t="s">
+        <v>708</v>
+      </c>
+      <c r="P3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" t="s">
+        <v>420</v>
+      </c>
+      <c r="H4" t="s">
+        <v>436</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="N4" t="s">
+        <v>713</v>
+      </c>
+      <c r="P4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" t="s">
+        <v>414</v>
+      </c>
+      <c r="H5" t="s">
+        <v>437</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="N5" t="s">
+        <v>718</v>
+      </c>
+      <c r="P5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" t="s">
+        <v>390</v>
+      </c>
+      <c r="H6" t="s">
+        <v>438</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="N6" t="s">
+        <v>723</v>
+      </c>
+      <c r="P6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H7" t="s">
+        <v>439</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="N7" t="s">
+        <v>728</v>
+      </c>
+      <c r="P7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" t="s">
+        <v>417</v>
+      </c>
+      <c r="H8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="N8" t="s">
+        <v>733</v>
+      </c>
+      <c r="P8" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" t="s">
+        <v>399</v>
+      </c>
+      <c r="H9" t="s">
+        <v>441</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="N9" t="s">
+        <v>698</v>
+      </c>
+      <c r="P9" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H10" t="s">
+        <v>442</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="N10" t="s">
+        <v>704</v>
+      </c>
+      <c r="P10" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" t="s">
+        <v>428</v>
+      </c>
+      <c r="H11" t="s">
+        <v>443</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="N11" t="s">
+        <v>709</v>
+      </c>
+      <c r="P11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F12" t="s">
+        <v>421</v>
+      </c>
+      <c r="H12" t="s">
+        <v>444</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="N12" t="s">
+        <v>714</v>
+      </c>
+      <c r="P12" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" t="s">
+        <v>388</v>
+      </c>
+      <c r="H13" t="s">
+        <v>445</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="N13" t="s">
+        <v>719</v>
+      </c>
+      <c r="P13" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" t="s">
+        <v>424</v>
+      </c>
+      <c r="H14" t="s">
+        <v>446</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="N14" t="s">
+        <v>724</v>
+      </c>
+      <c r="P14" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" t="s">
+        <v>407</v>
+      </c>
+      <c r="H15" t="s">
+        <v>447</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="N15" t="s">
+        <v>729</v>
+      </c>
+      <c r="P15" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" t="s">
+        <v>426</v>
+      </c>
+      <c r="H16" t="s">
+        <v>448</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="N16" t="s">
+        <v>734</v>
+      </c>
+      <c r="P16" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" t="s">
+        <v>408</v>
+      </c>
+      <c r="H17" t="s">
+        <v>449</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="N17" t="s">
+        <v>699</v>
+      </c>
+      <c r="P17" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" t="s">
+        <v>354</v>
+      </c>
+      <c r="F18" t="s">
+        <v>418</v>
+      </c>
+      <c r="H18" t="s">
+        <v>450</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="N18" t="s">
+        <v>694</v>
+      </c>
+      <c r="P18" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" t="s">
+        <v>387</v>
+      </c>
+      <c r="H19" t="s">
+        <v>451</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="N19" t="s">
+        <v>700</v>
+      </c>
+      <c r="P19" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" t="s">
+        <v>356</v>
+      </c>
+      <c r="F20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H20" t="s">
+        <v>452</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="N20" t="s">
+        <v>705</v>
+      </c>
+      <c r="P20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" t="s">
+        <v>357</v>
+      </c>
+      <c r="F21" t="s">
+        <v>385</v>
+      </c>
+      <c r="H21" t="s">
+        <v>453</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="N21" t="s">
+        <v>710</v>
+      </c>
+      <c r="P21" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="F22" t="s">
+        <v>425</v>
+      </c>
+      <c r="H22" t="s">
+        <v>454</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="N22" t="s">
+        <v>715</v>
+      </c>
+      <c r="P22" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F23" t="s">
+        <v>397</v>
+      </c>
+      <c r="H23" t="s">
+        <v>455</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="N23" t="s">
+        <v>720</v>
+      </c>
+      <c r="P23" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D24" t="s">
+        <v>360</v>
+      </c>
+      <c r="F24" t="s">
+        <v>411</v>
+      </c>
+      <c r="H24" t="s">
+        <v>456</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="N24" t="s">
+        <v>725</v>
+      </c>
+      <c r="P24" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" t="s">
+        <v>361</v>
+      </c>
+      <c r="F25" t="s">
+        <v>423</v>
+      </c>
+      <c r="H25" t="s">
+        <v>457</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="N25" t="s">
+        <v>730</v>
+      </c>
+      <c r="P25" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H26" t="s">
+        <v>458</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="N26" t="s">
+        <v>695</v>
+      </c>
+      <c r="P26" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" t="s">
+        <v>363</v>
+      </c>
+      <c r="F27" t="s">
+        <v>396</v>
+      </c>
+      <c r="H27" t="s">
+        <v>459</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="N27" t="s">
+        <v>701</v>
+      </c>
+      <c r="P27" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" t="s">
+        <v>364</v>
+      </c>
+      <c r="F28" t="s">
+        <v>413</v>
+      </c>
+      <c r="H28" t="s">
+        <v>460</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="N28" t="s">
+        <v>706</v>
+      </c>
+      <c r="P28" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>317</v>
+      </c>
+      <c r="D29" t="s">
+        <v>365</v>
+      </c>
+      <c r="F29" t="s">
+        <v>406</v>
+      </c>
+      <c r="H29" t="s">
+        <v>461</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="N29" t="s">
+        <v>711</v>
+      </c>
+      <c r="P29" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30" t="s">
+        <v>391</v>
+      </c>
+      <c r="H30" t="s">
+        <v>462</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="N30" t="s">
+        <v>716</v>
+      </c>
+      <c r="P30" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F31" t="s">
+        <v>430</v>
+      </c>
+      <c r="H31" t="s">
+        <v>463</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="N31" t="s">
+        <v>721</v>
+      </c>
+      <c r="P31" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F32" t="s">
+        <v>427</v>
+      </c>
+      <c r="H32" t="s">
+        <v>464</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="N32" t="s">
+        <v>726</v>
+      </c>
+      <c r="P32" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" t="s">
+        <v>369</v>
+      </c>
+      <c r="F33" t="s">
+        <v>429</v>
+      </c>
+      <c r="H33" t="s">
+        <v>465</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="N33" t="s">
+        <v>731</v>
+      </c>
+      <c r="P33" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>322</v>
+      </c>
+      <c r="D34" t="s">
+        <v>370</v>
+      </c>
+      <c r="F34" t="s">
+        <v>395</v>
+      </c>
+      <c r="H34" t="s">
+        <v>466</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="N34" t="s">
+        <v>696</v>
+      </c>
+      <c r="P34" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>323</v>
+      </c>
+      <c r="D35" t="s">
+        <v>371</v>
+      </c>
+      <c r="F35" t="s">
+        <v>412</v>
+      </c>
+      <c r="H35" t="s">
+        <v>467</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="N35" t="s">
+        <v>702</v>
+      </c>
+      <c r="P35" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>324</v>
+      </c>
+      <c r="D36" t="s">
+        <v>372</v>
+      </c>
+      <c r="F36" t="s">
+        <v>405</v>
+      </c>
+      <c r="H36" t="s">
+        <v>468</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="N36" t="s">
+        <v>707</v>
+      </c>
+      <c r="P36" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D37" t="s">
+        <v>373</v>
+      </c>
+      <c r="F37" t="s">
+        <v>410</v>
+      </c>
+      <c r="H37" t="s">
+        <v>469</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="N37" t="s">
+        <v>712</v>
+      </c>
+      <c r="P37" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D38" t="s">
+        <v>374</v>
+      </c>
+      <c r="F38" t="s">
+        <v>394</v>
+      </c>
+      <c r="H38" t="s">
+        <v>470</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="N38" t="s">
+        <v>717</v>
+      </c>
+      <c r="P38" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D39" t="s">
+        <v>375</v>
+      </c>
+      <c r="F39" t="s">
+        <v>409</v>
+      </c>
+      <c r="H39" t="s">
+        <v>471</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="N39" t="s">
+        <v>722</v>
+      </c>
+      <c r="P39" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>328</v>
+      </c>
+      <c r="D40" t="s">
+        <v>376</v>
+      </c>
+      <c r="F40" t="s">
+        <v>403</v>
+      </c>
+      <c r="H40" t="s">
+        <v>472</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="N40" t="s">
+        <v>727</v>
+      </c>
+      <c r="P40" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>329</v>
+      </c>
+      <c r="D41" t="s">
+        <v>377</v>
+      </c>
+      <c r="F41" t="s">
+        <v>422</v>
+      </c>
+      <c r="H41" t="s">
+        <v>473</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="N41" t="s">
+        <v>732</v>
+      </c>
+      <c r="P41" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>330</v>
+      </c>
+      <c r="D42" t="s">
+        <v>378</v>
+      </c>
+      <c r="F42" t="s">
+        <v>401</v>
+      </c>
+      <c r="H42" t="s">
+        <v>474</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="P42" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>331</v>
+      </c>
+      <c r="D43" t="s">
+        <v>379</v>
+      </c>
+      <c r="F43" t="s">
+        <v>431</v>
+      </c>
+      <c r="H43" t="s">
+        <v>475</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="P43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" t="s">
+        <v>380</v>
+      </c>
+      <c r="F44" t="s">
+        <v>416</v>
+      </c>
+      <c r="H44" t="s">
+        <v>476</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="P44" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>333</v>
+      </c>
+      <c r="D45" t="s">
+        <v>381</v>
+      </c>
+      <c r="F45" t="s">
+        <v>402</v>
+      </c>
+      <c r="H45" t="s">
+        <v>477</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="P45" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>334</v>
+      </c>
+      <c r="D46" t="s">
+        <v>382</v>
+      </c>
+      <c r="F46" t="s">
+        <v>419</v>
+      </c>
+      <c r="H46" t="s">
+        <v>478</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="P46" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>335</v>
+      </c>
+      <c r="D47" t="s">
+        <v>383</v>
+      </c>
+      <c r="F47" t="s">
+        <v>389</v>
+      </c>
+      <c r="H47" t="s">
+        <v>479</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="P47" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>336</v>
+      </c>
+      <c r="D48" t="s">
+        <v>384</v>
+      </c>
+      <c r="F48" t="s">
+        <v>393</v>
+      </c>
+      <c r="H48" t="s">
+        <v>480</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="P48" t="s">
+        <v>782</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -4248,7 +5512,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G48"/>
+      <selection activeCell="G1" sqref="G1:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5087,8 +6351,8 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F48"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6073,8 +7337,8 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F48"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6915,8 +8179,8 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F48"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7755,8 +9019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8766,8 +10030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G48"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9753,8 +11017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10654,8 +11918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H48"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scripts/barcodes_KGoriginal_file.xlsx
+++ b/scripts/barcodes_KGoriginal_file.xlsx
@@ -4246,10 +4246,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B1:P48"/>
+  <dimension ref="B1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4688,7 +4688,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>305</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>306</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>307</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>308</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>309</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>310</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>311</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>312</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>313</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>314</v>
       </c>
@@ -4947,8 +4947,12 @@
       <c r="P26" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f>425-377</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>315</v>
       </c>
@@ -4974,7 +4978,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>316</v>
       </c>
@@ -5000,7 +5004,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>317</v>
       </c>
@@ -5026,7 +5030,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>318</v>
       </c>
@@ -5052,7 +5056,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>319</v>
       </c>
@@ -5078,7 +5082,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>320</v>
       </c>
